--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E650C-CF10-4EFE-89CE-21205E3721B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Tiempo en escenario 1</t>
+  </si>
+  <si>
+    <t>Tiempo en escenario 2</t>
+  </si>
+  <si>
+    <t>Cantidad de caracteres original</t>
+  </si>
+  <si>
+    <t>Cantidad de consultas</t>
+  </si>
+  <si>
+    <t>Experimento no.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +82,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +149,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B2:F14" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento no." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Cantidad de caracteres original" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de consultas" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Tiempo en escenario 1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo en escenario 2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +427,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30507029-C458-43F4-9108-7509C2276FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390BD2F-188C-416A-A735-1E6B222F943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Cantidad de caracteres original</t>
-  </si>
-  <si>
-    <t>Cantidad de consultas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Experimento no.</t>
   </si>
   <si>
-    <t>Segundos en escenario 1</t>
+    <t>Cantidad de vértices</t>
   </si>
   <si>
-    <t>Segundos en escenario 2</t>
+    <t>Algoritmo no.</t>
   </si>
   <si>
-    <t>No alcanzamos a probar los escenarios porque se estaba demorando demasiado</t>
+    <t>Cantidad de vértices hayados en la solución</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -89,12 +86,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -104,6 +104,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -155,14 +156,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F14" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="F2:J23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="F2:J23" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento no." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Cantidad de caracteres original" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de consultas" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Segundos en escenario 1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Segundos en escenario 2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo no." dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de vértices" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Cantidad de vértices hayados en la solución" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -431,203 +432,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="F2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>1000</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>10000</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390BD2F-188C-416A-A735-1E6B222F943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB224D2-C556-45F2-8369-23BFA5CE1DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Experimento no.</t>
-  </si>
-  <si>
     <t>Cantidad de vértices</t>
   </si>
   <si>
-    <t>Algoritmo no.</t>
+    <t>Tiempo (s)</t>
   </si>
   <si>
-    <t>Cantidad de vértices hayados en la solución</t>
+    <t>Cantidad de V hayados en la solución</t>
   </si>
   <si>
-    <t>Tiempo</t>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Experimento</t>
   </si>
 </sst>
 </file>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,16 +100,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -104,13 +121,79 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -124,7 +207,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -134,12 +217,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -155,15 +244,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68747</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9060EE4C-B503-A426-D80B-66ED63B80BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="11542"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9107972" y="386384"/>
+          <a:ext cx="5436704" cy="1286621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="F2:J23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="F2:J23" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B2:F23" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento no." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo no." dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de vértices" dataDxfId="0" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Cantidad de vértices hayados en la solución" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de vértices" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Cantidad de V hayados en la solución" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo (s)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,316 +569,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F2:J23"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
+    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="1">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="D5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9937</v>
+      </c>
+      <c r="F5" s="1">
+        <v>235.9427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F5" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>10000</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
         <v>1000</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
         <v>10000</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="1">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>10000</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="1">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="1">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="1">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="1">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="1">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="1">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="1">
-        <v>19</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
         <v>10000</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="1">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="1">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB224D2-C556-45F2-8369-23BFA5CE1DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548302C9-D993-4B3E-9A42-831466B67B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,36 +127,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -231,6 +201,36 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -249,15 +249,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>68747</xdr:colOff>
+      <xdr:colOff>30201</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5384</xdr:rowOff>
+      <xdr:rowOff>94582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6130</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>379089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -274,13 +274,233 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="11542"/>
+        <a:srcRect t="1" b="21595"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9107972" y="386384"/>
-          <a:ext cx="5436704" cy="1286621"/>
+          <a:off x="5364201" y="988467"/>
+          <a:ext cx="5423516" cy="1149084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>401061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D46ECC2-7F42-CDFD-656B-EAD12D92C689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5363308" y="2225597"/>
+          <a:ext cx="5788842" cy="1230791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40559</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>400813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC941B35-BE3F-7AFD-27EA-4D0081E8189A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5374559" y="3541896"/>
+          <a:ext cx="5703749" cy="1211109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247866</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>395654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78BA068-FEDA-8954-857C-C7CFB5E713D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385289" y="4821117"/>
+          <a:ext cx="5669789" cy="1655883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51288</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402811</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>414584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C799A4F2-6413-AC19-83F2-9B1E4B7AD4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385288" y="6536150"/>
+          <a:ext cx="5824735" cy="1688934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31462E2-B885-7DF7-E68E-B359572E20CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416827" y="8284617"/>
+          <a:ext cx="5839238" cy="1657400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -293,14 +513,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B2:F23" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de vértices" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Cantidad de V hayados en la solución" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo (s)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{AD94BA08-6D83-4BAE-86CF-6B27089D8901}" name="Cantidad de vértices" dataDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{1D76434B-9678-4ED0-9B58-B0EE00F76004}" name="Cantidad de V hayados en la solución" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{310FA9E9-9F8A-45C4-93CC-7A538C43B1C2}" name="Tiempo (s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,8 +879,12 @@
       <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -672,8 +896,12 @@
       <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>995</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -685,8 +913,12 @@
       <c r="D8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>9495</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22.471699999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -698,8 +930,12 @@
       <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -711,8 +947,12 @@
       <c r="D10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>994</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.3531000000000004</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -724,8 +964,12 @@
       <c r="D11" s="3">
         <v>10000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>9477</v>
+      </c>
+      <c r="F11" s="1">
+        <v>214.49969999999999</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -737,8 +981,12 @@
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -750,8 +998,12 @@
       <c r="D13" s="3">
         <v>100</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -763,8 +1015,12 @@
       <c r="D14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -776,8 +1032,12 @@
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -789,8 +1049,12 @@
       <c r="D16" s="3">
         <v>1000</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.3281</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -802,8 +1066,12 @@
       <c r="D17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
@@ -815,8 +1083,12 @@
       <c r="D18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.3906</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -828,8 +1100,12 @@
       <c r="D19" s="3">
         <v>1000</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.39079999999999998</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -841,8 +1117,12 @@
       <c r="D20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>9822</v>
+      </c>
+      <c r="F20" s="1">
+        <v>29.174700000000001</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -854,8 +1134,12 @@
       <c r="D21" s="3">
         <v>10000</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>9836</v>
+      </c>
+      <c r="F21" s="1">
+        <v>28.740300000000001</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -867,8 +1151,12 @@
       <c r="D22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>9845</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30.2561</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -880,8 +1168,12 @@
       <c r="D23" s="3">
         <v>10000</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>9844</v>
+      </c>
+      <c r="F23" s="1">
+        <v>35.701900000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548302C9-D993-4B3E-9A42-831466B67B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893F025-0CE0-445D-ADCC-3959DD066351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cantidad de vértices</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Experimento</t>
+  </si>
+  <si>
+    <t>Con el fin de generar grafos aleatorios para el análisis del rendimiento de los diferentes algoritmos, se desarrolló un simple programa dentro de la carpeta test_files, llamado graph_generator.py que recibe por argumentos la cantidad de vértices, arcos y la semilla. Una posible ejecución del programa sería, “python graph_generator.py -nodes 100 -edges 1000 -seed 1048576”. Esto generaría un grafo con 100 vértices, 1000 arcos entre los 100 vértices especificados y para la función aleatoria, la semilla 1048576.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +116,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -250,14 +256,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>30201</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>94582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>588640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>379089</xdr:rowOff>
+      <xdr:colOff>588639</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>379090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -293,13 +299,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>34847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>344938</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>401061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -337,14 +343,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>40559</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>54281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>271096</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>400813</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>400812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,14 +387,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>36636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>247866</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>395654</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>395653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,14 +431,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>22515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>402811</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>414584</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>414583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -469,14 +475,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57979</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68269</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2887</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>410163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,8 +505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5416827" y="8284617"/>
-          <a:ext cx="5839238" cy="1657400"/>
+          <a:off x="5339427" y="9284528"/>
+          <a:ext cx="5821245" cy="1642549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B2:F23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F23" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}" name="Tabla1" displayName="Tabla1" ref="B4:F25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B4:F25" xr:uid="{1B7706D5-DB7F-47FB-87AC-F24EEDBE857A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1EB1912-16EB-40FE-9317-12FB891E6113}" name="Experimento" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{C527D2CB-C0DA-4BEA-AA5A-99F93E8DE8CA}" name="Algoritmo" dataDxfId="3" dataCellStyle="Moneda"/>
@@ -789,225 +795,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="4" spans="2:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="5" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>84</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>10000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7" s="1">
         <v>9937</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F7" s="1">
         <v>235.9427</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>53</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>995</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>995</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10" s="1">
         <v>9495</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F10" s="1">
         <v>22.471699999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>994</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.3531000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>994</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.3531000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
         <v>10000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>9477</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13" s="1">
         <v>214.49969999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="14" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1">
-        <v>67</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -1016,15 +1007,15 @@
         <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1033,49 +1024,49 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>999</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.3281</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>998</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -1084,15 +1075,15 @@
         <v>1000</v>
       </c>
       <c r="E18" s="1">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F18" s="1">
-        <v>0.3906</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -1101,49 +1092,49 @@
         <v>1000</v>
       </c>
       <c r="E19" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F19" s="1">
-        <v>0.39079999999999998</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="1">
-        <v>9822</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="1">
-        <v>29.174700000000001</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="1">
-        <v>9836</v>
+        <v>999</v>
       </c>
       <c r="F21" s="1">
-        <v>28.740300000000001</v>
+        <v>0.39079999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
@@ -1152,15 +1143,15 @@
         <v>10000</v>
       </c>
       <c r="E22" s="1">
-        <v>9845</v>
+        <v>9822</v>
       </c>
       <c r="F22" s="1">
-        <v>30.2561</v>
+        <v>29.174700000000001</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -1169,13 +1160,50 @@
         <v>10000</v>
       </c>
       <c r="E23" s="1">
+        <v>9836</v>
+      </c>
+      <c r="F23" s="1">
+        <v>28.740300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9845</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30.2561</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="1">
         <v>9844</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>35.701900000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Resultados experimentos.xlsx
+++ b/Resultados experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\dev\graphs-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893F025-0CE0-445D-ADCC-3959DD066351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FFC75-A8B5-4BD4-A921-8213074025B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Experimento</t>
   </si>
   <si>
-    <t>Con el fin de generar grafos aleatorios para el análisis del rendimiento de los diferentes algoritmos, se desarrolló un simple programa dentro de la carpeta test_files, llamado graph_generator.py que recibe por argumentos la cantidad de vértices, arcos y la semilla. Una posible ejecución del programa sería, “python graph_generator.py -nodes 100 -edges 1000 -seed 1048576”. Esto generaría un grafo con 100 vértices, 1000 arcos entre los 100 vértices especificados y para la función aleatoria, la semilla 1048576.</t>
+    <t>Con el fin de generar grafos aleatorios para el análisis del rendimiento de los diferentes algoritmos, se desarrolló un simple programa dentro de la carpeta test_files, llamado graph_generator.py que recibe por argumentos la cantidad de vértices, arcos y la semilla. Una posible ejecución del programa sería, “python graph_generator.py -nodes 100 -edges 1000 -seed 1048576”. Esto generaría un grafo con 100 vértices, 1000 arcos entre los 100 vértices especificados y para la función aleatoria, la semilla 1048576. Cabe aclarar que los arcos son creados de forma aleatoria entre cualquier par de vértices usando la función random.choice(), con la semilla especificada. No se generan los arcos en ambos sentidos (aunque puede suceder que aparezca en alguna ejecución y no importaría para la ejecución del algoritmo) para el archivo generado, ya que se supone que es un grafo no dirigido.</t>
   </si>
 </sst>
 </file>
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,7 +125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -306,7 +314,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>344938</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>401061</xdr:rowOff>
+      <xdr:rowOff>401060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -394,7 +402,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>247866</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>395653</xdr:rowOff>
+      <xdr:rowOff>395654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,7 +446,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>402811</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>414583</xdr:rowOff>
+      <xdr:rowOff>414584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -798,7 +806,7 @@
   <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +816,7 @@
     <col min="3" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
